--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/w449t405/Documents/GIT/websites/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF0B875-9065-F940-B737-BEB6A7BE40F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFB66EB-60A4-EB4F-8E99-D2077CC55C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="13800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="18780" windowHeight="17040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
   <si>
     <t>in_resume</t>
   </si>
@@ -264,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1105,11 +1105,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
@@ -1117,7 +1117,7 @@
     <col min="6" max="9" width="32.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="51">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="51">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1223,7 +1223,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
@@ -1232,7 +1232,7 @@
     <col min="7" max="9" width="43.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="85">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="102">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1380,10 +1380,10 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
@@ -1393,7 +1393,7 @@
     <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="34">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1433,16 +1433,16 @@
         <v>72</v>
       </c>
       <c r="E2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G2" s="3">
         <v>225000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="51">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1456,17 +1456,17 @@
         <v>72</v>
       </c>
       <c r="E3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="34">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="34">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1503,10 +1503,10 @@
         <v>72</v>
       </c>
       <c r="E5">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G5" s="3">
         <v>225000</v>
@@ -1531,19 +1531,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F508133-2F1C-F74C-9A6E-5E2385798E5D}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="60.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1568,60 +1568,60 @@
         <v>43</v>
       </c>
       <c r="C2">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
       </c>
       <c r="C3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C4">
-        <v>2014</v>
-      </c>
-      <c r="D4">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>2014</v>
       </c>
+      <c r="D5">
+        <v>2018</v>
+      </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
@@ -1633,29 +1633,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7">
-        <v>2010</v>
-      </c>
-      <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>2010</v>
@@ -1664,34 +1661,51 @@
         <v>2014</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>2010</v>
       </c>
+      <c r="D9">
+        <v>2014</v>
+      </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>2010</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>54</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>2009</v>
       </c>
-      <c r="E10" t="b">
+      <c r="E11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1708,32 +1722,32 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>58</v>
       </c>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/w449t405/Documents/GIT/websites/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakethompson/Documents/GIT/websites/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFB66EB-60A4-EB4F-8E99-D2077CC55C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E65351-6DB9-3343-B75B-9821E791EEC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="18780" windowHeight="17040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="18780" windowHeight="17040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="3" r:id="rId1"/>
@@ -264,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1109,7 +1109,7 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
@@ -1117,7 +1117,7 @@
     <col min="6" max="9" width="32.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="51">
+    <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="51">
+    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1223,7 +1223,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
@@ -1232,7 +1232,7 @@
     <col min="7" max="9" width="43.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="85">
+    <row r="2" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="102">
+    <row r="6" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1379,11 +1379,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B7310B-209B-5F48-96E7-648531B2B600}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
@@ -1393,7 +1393,7 @@
     <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1419,9 +1419,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="34">
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -1442,7 +1442,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51">
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1466,9 +1466,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34">
+    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -1489,7 +1489,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="34">
+    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1533,17 +1533,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F508133-2F1C-F74C-9A6E-5E2385798E5D}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1722,32 +1722,32 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakethompson/Documents/GIT/websites/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E65351-6DB9-3343-B75B-9821E791EEC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8879E07-D9D5-EA4C-BA4D-32353558D075}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="18780" windowHeight="17040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
   <si>
     <t>in_resume</t>
   </si>
@@ -243,12 +243,6 @@
   </si>
   <si>
     <t>USED, Institute of Education Sciences</t>
-  </si>
-  <si>
-    <t>Paths to Success: The Relationship of Academic and Career Skills to Postsecondary Employment Outcomes for Students with Significant Cognitive Disabilities</t>
-  </si>
-  <si>
-    <t>Gail Tiemann</t>
   </si>
   <si>
     <t>description_4</t>
@@ -1143,7 +1137,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
@@ -1204,7 +1198,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -1377,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B7310B-209B-5F48-96E7-648531B2B600}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1442,73 +1436,49 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="F3">
-        <v>2025</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>2020</v>
+      </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E4">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F4">
-        <v>2020</v>
-      </c>
-      <c r="H4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5">
-        <v>2020</v>
-      </c>
-      <c r="F5">
         <v>2022</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G4" s="3">
         <v>225000</v>
       </c>
     </row>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakethompson/Documents/GIT/websites/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8879E07-D9D5-EA4C-BA4D-32353558D075}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9238B41F-A58C-2445-9214-0ABD4F6C41C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="18780" windowHeight="17040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
   <si>
     <t>in_resume</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>Highest Distinction, with University and Departmental Honors</t>
+  </si>
+  <si>
+    <t>Advisor</t>
+  </si>
+  <si>
+    <t>Data-driven, Accelerated Academic Recovery (DAAR) for Students with Significant Cognitive Disabilities</t>
   </si>
 </sst>
 </file>
@@ -1371,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B7310B-209B-5F48-96E7-648531B2B600}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1415,25 +1421,25 @@
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
         <v>72</v>
       </c>
       <c r="E2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F2">
-        <v>2023</v>
-      </c>
-      <c r="G2" s="3">
-        <v>225000</v>
+        <v>2025</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1441,44 +1447,67 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="F3">
-        <v>2020</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
+        <v>2023</v>
+      </c>
+      <c r="G3" s="3">
+        <v>225000</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4">
+        <v>2016</v>
+      </c>
+      <c r="F4">
+        <v>2020</v>
+      </c>
+      <c r="H4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>72</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>2020</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>2022</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>225000</v>
       </c>
     </row>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakethompson/Documents/GIT/websites/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9238B41F-A58C-2445-9214-0ABD4F6C41C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532D3EBD-1D27-7F42-81C8-0C20F07237B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="18780" windowHeight="17040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="18780" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="3" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>2019-04</t>
   </si>
   <si>
-    <t>Advisor: Neal Kingston</t>
-  </si>
-  <si>
     <t>Develop internal and external R packages</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t>Kansas Honor's Scholar</t>
   </si>
   <si>
-    <t>Advisor: Evangelia G. Chrysikou</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -255,6 +249,12 @@
   </si>
   <si>
     <t>Data-driven, Accelerated Academic Recovery (DAAR) for Students with Significant Cognitive Disabilities</t>
+  </si>
+  <si>
+    <t>Advisor: [Neal Kingston, Ph.D.](https://nealkingston.ku.edu/)</t>
+  </si>
+  <si>
+    <t>Advisor: [Evangelia G. Chrysikou, Ph.D.](https://www.chrysikoulab.com/)</t>
   </si>
 </sst>
 </file>
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1143,7 +1143,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
@@ -1198,13 +1198,13 @@
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -1281,13 +1281,13 @@
         <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1352,22 +1352,22 @@
     </row>
     <row r="6" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1379,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B7310B-209B-5F48-96E7-648531B2B600}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1395,16 +1395,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1413,24 +1413,24 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2">
         <v>2022</v>
@@ -1439,21 +1439,21 @@
         <v>2025</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>2021</v>
@@ -1467,16 +1467,16 @@
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>2016</v>
@@ -1485,21 +1485,21 @@
         <v>2020</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E5">
         <v>2020</v>
@@ -1544,27 +1544,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -1575,10 +1575,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
       </c>
       <c r="C3">
         <v>2017</v>
@@ -1589,10 +1589,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>2016</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1620,10 +1620,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
       </c>
       <c r="C6">
         <v>2014</v>
@@ -1634,10 +1634,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>2014</v>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
         <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
       </c>
       <c r="C8">
         <v>2010</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1682,10 +1682,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
         <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
       </c>
       <c r="C10">
         <v>2010</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1728,27 +1728,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakethompson/Documents/GIT/websites/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532D3EBD-1D27-7F42-81C8-0C20F07237B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A120337-A7DF-E941-BB8C-344BC3CAE74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="18780" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="18780" windowHeight="17040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
   <si>
     <t>in_resume</t>
   </si>
@@ -243,12 +243,6 @@
   </si>
   <si>
     <t>Highest Distinction, with University and Departmental Honors</t>
-  </si>
-  <si>
-    <t>Advisor</t>
-  </si>
-  <si>
-    <t>Data-driven, Accelerated Academic Recovery (DAAR) for Students with Significant Cognitive Disabilities</t>
   </si>
   <si>
     <t>Advisor: [Neal Kingston, Ph.D.](https://nealkingston.ku.edu/)</t>
@@ -1105,7 +1099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1169,7 +1163,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
@@ -1198,7 +1192,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
@@ -1377,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B7310B-209B-5F48-96E7-648531B2B600}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1421,93 +1415,70 @@
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
         <v>70</v>
       </c>
       <c r="E2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F2">
-        <v>2025</v>
-      </c>
-      <c r="H2" t="s">
-        <v>67</v>
+        <v>2023</v>
+      </c>
+      <c r="G2" s="3">
+        <v>225000</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E3">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="F3">
-        <v>2023</v>
-      </c>
-      <c r="G3" s="3">
-        <v>225000</v>
+        <v>2020</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F4">
-        <v>2020</v>
-      </c>
-      <c r="H4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5">
-        <v>2020</v>
-      </c>
-      <c r="F5">
         <v>2022</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G4" s="3">
         <v>225000</v>
       </c>
     </row>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakethompson/Documents/GIT/websites/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A120337-A7DF-E941-BB8C-344BC3CAE74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFFA25F-FE5E-C540-BD8C-DE08A35F2B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="18780" windowHeight="17040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="18780" windowHeight="17040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
   <si>
     <t>in_resume</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>Advisor: [Evangelia G. Chrysikou, Ph.D.](https://www.chrysikoulab.com/)</t>
+  </si>
+  <si>
+    <t>American Educational Research Association</t>
+  </si>
+  <si>
+    <t>AERA Inclusion and Accessibility in Educational Assessment SIG Annual Award</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B7310B-209B-5F48-96E7-648531B2B600}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1501,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F508133-2F1C-F74C-9A6E-5E2385798E5D}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1532,13 +1538,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C2">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1552,7 +1558,7 @@
         <v>42</v>
       </c>
       <c r="C3">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1560,13 +1566,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
       </c>
       <c r="C4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1574,16 +1580,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C5">
-        <v>2014</v>
-      </c>
-      <c r="D5">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1591,21 +1594,24 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>2014</v>
       </c>
+      <c r="D6">
+        <v>2018</v>
+      </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -1619,15 +1625,12 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8">
-        <v>2010</v>
-      </c>
-      <c r="D8">
         <v>2014</v>
       </c>
       <c r="E8" t="b">
@@ -1636,10 +1639,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>2010</v>
@@ -1648,34 +1651,51 @@
         <v>2014</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>2010</v>
       </c>
+      <c r="D10">
+        <v>2014</v>
+      </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <v>2010</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>2009</v>
       </c>
-      <c r="E11" t="b">
+      <c r="E12" t="b">
         <v>0</v>
       </c>
     </row>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakethompson/Documents/GIT/websites/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFFA25F-FE5E-C540-BD8C-DE08A35F2B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A64731-019E-244C-9122-E0D10C4F1040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="18780" windowHeight="17040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="18780" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="3" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>Provide statistical and methodological consultations</t>
   </si>
   <si>
-    <t>Selected projects include: analyzing data for research labs at the University of Kansas Medical Center; providing recommendations for the implementation of evidence centered design to the National Council of State Boards of Nursing; estimating growth projecions for JNA Advertising.</t>
-  </si>
-  <si>
     <t>award</t>
   </si>
   <si>
@@ -255,6 +252,9 @@
   </si>
   <si>
     <t>AERA Inclusion and Accessibility in Educational Assessment SIG Annual Award</t>
+  </si>
+  <si>
+    <t>Selected projects include: analyzing data for research labs at the University of Kansas Medical Center; providing recommendations for the implementation of evidence centered design to the National Council of State Boards of Nursing; estimating growth projections for JNA Advertising.</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1143,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
@@ -1198,13 +1198,13 @@
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -1219,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1350,7 +1350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>34</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1395,16 +1395,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1413,24 +1413,24 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
         <v>65</v>
-      </c>
-      <c r="H1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
       </c>
       <c r="E2">
         <v>2021</v>
@@ -1444,16 +1444,16 @@
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>2016</v>
@@ -1462,21 +1462,21 @@
         <v>2020</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
         <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
       </c>
       <c r="E4">
         <v>2020</v>
@@ -1509,7 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F508133-2F1C-F74C-9A6E-5E2385798E5D}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1521,27 +1521,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -1566,10 +1566,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
       </c>
       <c r="C4">
         <v>2017</v>
@@ -1580,10 +1580,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>2016</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1611,10 +1611,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
       </c>
       <c r="C7">
         <v>2014</v>
@@ -1625,10 +1625,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>2014</v>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
         <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
       </c>
       <c r="C9">
         <v>2010</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
       </c>
       <c r="C11">
         <v>2010</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1719,27 +1719,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakethompson/Documents/GIT/websites/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A64731-019E-244C-9122-E0D10C4F1040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D6015D-CBBB-2444-B3AD-8BDAC46D92F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="18780" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
   <si>
     <t>in_resume</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Lead research program on psychometric modeling, including presentation of findings to a variety of audiences</t>
   </si>
   <si>
-    <t>Member of  ATLAS psychometric team working across projects including [Dynamic Learning Maps](https://dynamiclearningmaps.org) and [Innovations in Science Map, Assessment and Report Technologies](https://ismart.works)</t>
-  </si>
-  <si>
     <t>Statistical Consultant</t>
   </si>
   <si>
@@ -255,6 +252,15 @@
   </si>
   <si>
     <t>Selected projects include: analyzing data for research labs at the University of Kansas Medical Center; providing recommendations for the implementation of evidence centered design to the National Council of State Boards of Nursing; estimating growth projections for JNA Advertising.</t>
+  </si>
+  <si>
+    <t>2022-04</t>
+  </si>
+  <si>
+    <t>Assistant Director for Psychometrics</t>
+  </si>
+  <si>
+    <t>Member of  ATLAS psychometric team working across projects including [Dynamic Learning Maps](https://dynamiclearningmaps.org) and the R package [measr](https://measr.info)</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1149,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
@@ -1169,7 +1175,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
@@ -1198,13 +1204,13 @@
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -1217,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1264,9 +1270,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -1278,10 +1284,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>28</v>
@@ -1292,7 +1298,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -1304,15 +1310,15 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -1324,15 +1330,15 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1344,30 +1350,50 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="119" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>76</v>
+      <c r="H7" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1395,16 +1421,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1413,24 +1439,24 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
         <v>64</v>
-      </c>
-      <c r="H1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
       </c>
       <c r="E2">
         <v>2021</v>
@@ -1444,16 +1470,16 @@
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>2016</v>
@@ -1462,21 +1488,21 @@
         <v>2020</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
         <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>69</v>
       </c>
       <c r="E4">
         <v>2020</v>
@@ -1521,27 +1547,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -1552,10 +1578,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -1566,10 +1592,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
         <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
       </c>
       <c r="C4">
         <v>2017</v>
@@ -1580,10 +1606,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>2016</v>
@@ -1594,7 +1620,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1611,10 +1637,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
         <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
       </c>
       <c r="C7">
         <v>2014</v>
@@ -1625,10 +1651,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>2014</v>
@@ -1639,10 +1665,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
         <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
       </c>
       <c r="C9">
         <v>2010</v>
@@ -1656,7 +1682,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1673,10 +1699,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
         <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
       </c>
       <c r="C11">
         <v>2010</v>
@@ -1687,7 +1713,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1719,27 +1745,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakethompson/Documents/GIT/websites/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D6015D-CBBB-2444-B3AD-8BDAC46D92F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2266342D-DC3A-334A-8396-BDFDF6308439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="18780" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="18780" windowHeight="17040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
   <si>
     <t>in_resume</t>
   </si>
@@ -261,6 +261,15 @@
   </si>
   <si>
     <t>Member of  ATLAS psychometric team working across projects including [Dynamic Learning Maps](https://dynamiclearningmaps.org) and the R package [measr](https://measr.info)</t>
+  </si>
+  <si>
+    <t>Co-Principal Investigator</t>
+  </si>
+  <si>
+    <t>Dynamic Learning Maps Alternate Assessment System</t>
+  </si>
+  <si>
+    <t>Ongoing state contracts</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1403,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B7310B-209B-5F48-96E7-648531B2B600}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1445,72 +1454,89 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2">
-        <v>2021</v>
-      </c>
-      <c r="F2">
-        <v>2023</v>
-      </c>
-      <c r="G2" s="3">
-        <v>225000</v>
+        <v>81</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="F3">
-        <v>2020</v>
-      </c>
-      <c r="H3" t="s">
-        <v>65</v>
+        <v>2023</v>
+      </c>
+      <c r="G3" s="3">
+        <v>225000</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4">
+        <v>2016</v>
+      </c>
+      <c r="F4">
+        <v>2020</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>54</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>68</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>2020</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>2022</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>225000</v>
       </c>
     </row>
@@ -1523,7 +1549,7 @@
           <x14:formula1>
             <xm:f>'data-validation'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
+          <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakethompson/Documents/GIT/websites/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2266342D-DC3A-334A-8396-BDFDF6308439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA46BCE4-3DDD-CE4C-897B-931D883B051A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="18780" windowHeight="17040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="26540" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
   <si>
     <t>in_resume</t>
   </si>
@@ -107,12 +107,6 @@
     <t>2019-04</t>
   </si>
   <si>
-    <t>Develop internal and external R packages</t>
-  </si>
-  <si>
-    <t>Lead research program on psychometric modeling, including presentation of findings to a variety of audiences</t>
-  </si>
-  <si>
     <t>Statistical Consultant</t>
   </si>
   <si>
@@ -257,12 +251,6 @@
     <t>2022-04</t>
   </si>
   <si>
-    <t>Assistant Director for Psychometrics</t>
-  </si>
-  <si>
-    <t>Member of  ATLAS psychometric team working across projects including [Dynamic Learning Maps](https://dynamiclearningmaps.org) and the R package [measr](https://measr.info)</t>
-  </si>
-  <si>
     <t>Co-Principal Investigator</t>
   </si>
   <si>
@@ -270,6 +258,21 @@
   </si>
   <si>
     <t>Ongoing state contracts</t>
+  </si>
+  <si>
+    <t>Assistant Director of Psychometrics</t>
+  </si>
+  <si>
+    <t>Lead a team of 2–3 reports to execute operational scoring and reporting and for the [Dynamic Learning Maps](https://dynamiclearningmaps.org) Alternate Assessment</t>
+  </si>
+  <si>
+    <t>Develop and lead the implementation of a psychometric research program focused on diagnostic classification modeling, including presentation of findings to a variety of audiences</t>
+  </si>
+  <si>
+    <t>Develop internal and external software, such as the R package [measr](https://measr.info)</t>
+  </si>
+  <si>
+    <t>Work across contract and grant-funded projects to promote learning, evaluate student achievement, and develop tools to improve research practice</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1161,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
@@ -1184,7 +1187,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
@@ -1213,13 +1216,13 @@
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -1232,9 +1235,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1244,10 +1247,10 @@
     <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="43.33203125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="43.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1275,13 +1278,16 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -1293,19 +1299,22 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1322,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1345,7 +1354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1365,7 +1374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1385,24 +1394,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +1423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B7310B-209B-5F48-96E7-648531B2B600}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1430,16 +1439,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1448,41 +1457,41 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>2021</v>
@@ -1496,16 +1505,16 @@
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>2016</v>
@@ -1514,21 +1523,21 @@
         <v>2020</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5">
         <v>2020</v>
@@ -1573,27 +1582,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -1604,10 +1613,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -1618,10 +1627,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>2017</v>
@@ -1632,10 +1641,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>2016</v>
@@ -1646,7 +1655,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1663,10 +1672,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>2014</v>
@@ -1677,10 +1686,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>2014</v>
@@ -1691,10 +1700,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>2010</v>
@@ -1708,7 +1717,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1725,10 +1734,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>2010</v>
@@ -1739,7 +1748,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1771,27 +1780,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakethompson/Documents/GIT/websites/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA46BCE4-3DDD-CE4C-897B-931D883B051A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F600B6B-90F5-DC4B-B6D1-EA0FE5EE6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="26540" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,9 +263,6 @@
     <t>Assistant Director of Psychometrics</t>
   </si>
   <si>
-    <t>Lead a team of 2–3 reports to execute operational scoring and reporting and for the [Dynamic Learning Maps](https://dynamiclearningmaps.org) Alternate Assessment</t>
-  </si>
-  <si>
     <t>Develop and lead the implementation of a psychometric research program focused on diagnostic classification modeling, including presentation of findings to a variety of audiences</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>Work across contract and grant-funded projects to promote learning, evaluate student achievement, and develop tools to improve research practice</t>
+  </si>
+  <si>
+    <t>Lead a team of 3–4 reports to execute operational scoring and reporting and for the [Dynamic Learning Maps](https://dynamiclearningmaps.org) Alternate Assessment</t>
   </si>
 </sst>
 </file>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1113,7 +1113,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1238,7 +1238,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1302,16 +1302,16 @@
         <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakethompson/Documents/GIT/websites/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA46BCE4-3DDD-CE4C-897B-931D883B051A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DEDA8B-69E8-AB47-870E-F11CA1215093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="26540" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="26540" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="84">
   <si>
     <t>in_resume</t>
   </si>
@@ -65,18 +65,12 @@
     <t>Lawrence, KS</t>
   </si>
   <si>
-    <t>Dissertation: "Evaluating Model Estimation Processes for Diagnostic Classification Models"</t>
-  </si>
-  <si>
     <t>Emphasis: Research, Evaluation, Measurement, and Statistics</t>
   </si>
   <si>
     <t>B.S., Behavioral Neuroscience</t>
   </si>
   <si>
-    <t>Honors Thesis: "Dissociating Cognitive and Affective Empathy in Unipolar Depression"</t>
-  </si>
-  <si>
     <t>Minor: Social and Behavioral Sciences Methodology</t>
   </si>
   <si>
@@ -263,9 +257,6 @@
     <t>Assistant Director of Psychometrics</t>
   </si>
   <si>
-    <t>Lead a team of 2–3 reports to execute operational scoring and reporting and for the [Dynamic Learning Maps](https://dynamiclearningmaps.org) Alternate Assessment</t>
-  </si>
-  <si>
     <t>Develop and lead the implementation of a psychometric research program focused on diagnostic classification modeling, including presentation of findings to a variety of audiences</t>
   </si>
   <si>
@@ -273,6 +264,18 @@
   </si>
   <si>
     <t>Work across contract and grant-funded projects to promote learning, evaluate student achievement, and develop tools to improve research practice</t>
+  </si>
+  <si>
+    <t>AERA Division H Outstanding Publication Winner</t>
+  </si>
+  <si>
+    <t>Lead a team of 3–4 reports to execute operational scoring and reporting and for the [Dynamic Learning Maps](https://dynamiclearningmaps.org) Alternate Assessment</t>
+  </si>
+  <si>
+    <t>Dissertation: "[Evaluating Model Estimation Processes for Diagnostic Classification Models](https://doi.org/10.31237/osf.io/vke5u)"</t>
+  </si>
+  <si>
+    <t>Honors Thesis: "[Dissociating Cognitive and Affective Empathy in Unipolar Depression](https://doi.org/10.31237/osf.io/m4xjf)"</t>
   </si>
 </sst>
 </file>
@@ -1123,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1161,13 +1164,13 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1184,21 +1187,21 @@
         <v>2018</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1213,16 +1216,16 @@
         <v>2014</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -1237,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1255,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1279,7 +1282,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -1287,10 +1290,10 @@
     </row>
     <row r="2" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1299,27 +1302,27 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1328,18 +1331,18 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1348,18 +1351,18 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1368,10 +1371,10 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1379,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1388,30 +1391,30 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1439,16 +1442,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1457,41 +1460,41 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>77</v>
-      </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>2021</v>
@@ -1505,16 +1508,16 @@
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>2016</v>
@@ -1523,21 +1526,21 @@
         <v>2020</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>2020</v>
@@ -1568,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F508133-2F1C-F74C-9A6E-5E2385798E5D}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1582,30 +1585,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1613,13 +1616,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1627,13 +1630,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1641,13 +1644,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1655,16 +1658,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C6">
-        <v>2014</v>
-      </c>
-      <c r="D6">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1672,24 +1672,27 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>2014</v>
       </c>
+      <c r="D7">
+        <v>2018</v>
+      </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>2014</v>
@@ -1700,15 +1703,12 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>2010</v>
-      </c>
-      <c r="D9">
         <v>2014</v>
       </c>
       <c r="E9" t="b">
@@ -1717,10 +1717,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>2010</v>
@@ -1729,34 +1729,51 @@
         <v>2014</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>2010</v>
       </c>
+      <c r="D11">
+        <v>2014</v>
+      </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>2010</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>2009</v>
       </c>
-      <c r="E12" t="b">
+      <c r="E13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1780,27 +1797,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakethompson/Documents/GIT/websites/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DEDA8B-69E8-AB47-870E-F11CA1215093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5A27DD-B4C6-E643-8469-818DEE71AACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="26540" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="26540" windowHeight="17040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
   <si>
     <t>in_resume</t>
   </si>
@@ -248,9 +248,6 @@
     <t>Co-Principal Investigator</t>
   </si>
   <si>
-    <t>Dynamic Learning Maps Alternate Assessment System</t>
-  </si>
-  <si>
     <t>Ongoing state contracts</t>
   </si>
   <si>
@@ -276,6 +273,18 @@
   </si>
   <si>
     <t>Honors Thesis: "[Dissociating Cognitive and Affective Empathy in Unipolar Depression](https://doi.org/10.31237/osf.io/m4xjf)"</t>
+  </si>
+  <si>
+    <t>Pathways for Instructionally Embedded Assessment (PIE)</t>
+  </si>
+  <si>
+    <t>Dynamic Learning Maps (DLM) Alternate Assessment System</t>
+  </si>
+  <si>
+    <t>USED, Office of Elementary and Secondary Education, Office of School Support and Accountability</t>
+  </si>
+  <si>
+    <t>Brooke Nash</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1187,7 +1196,7 @@
         <v>2018</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>67</v>
@@ -1216,7 +1225,7 @@
         <v>2014</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>68</v>
@@ -1290,7 +1299,7 @@
     </row>
     <row r="2" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -1305,16 +1314,16 @@
         <v>72</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1424,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B7310B-209B-5F48-96E7-648531B2B600}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1440,7 +1449,7 @@
     <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1465,8 +1474,11 @@
       <c r="H1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1474,82 +1486,120 @@
         <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
         <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
       </c>
       <c r="H2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3">
+        <v>2022</v>
+      </c>
+      <c r="F3">
+        <v>2026</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>64</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>2021</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>2023</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G4" s="3">
         <v>225000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>62</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>2016</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>2020</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>64</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>2020</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>2022</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="3">
         <v>225000</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1561,7 +1611,7 @@
           <x14:formula1>
             <xm:f>'data-validation'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
+          <xm:sqref>A4:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1571,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F508133-2F1C-F74C-9A6E-5E2385798E5D}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1602,10 +1652,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1616,13 +1666,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
       </c>
       <c r="C3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1630,13 +1680,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C4">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1650,7 +1700,7 @@
         <v>36</v>
       </c>
       <c r="C5">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1658,13 +1708,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
       </c>
       <c r="C6">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1672,16 +1722,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C7">
-        <v>2014</v>
-      </c>
-      <c r="D7">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1689,21 +1736,24 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>2014</v>
       </c>
+      <c r="D8">
+        <v>2018</v>
+      </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
@@ -1717,15 +1767,12 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>2010</v>
-      </c>
-      <c r="D10">
         <v>2014</v>
       </c>
       <c r="E10" t="b">
@@ -1734,10 +1781,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>2010</v>
@@ -1746,34 +1793,51 @@
         <v>2014</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>2010</v>
       </c>
+      <c r="D12">
+        <v>2014</v>
+      </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>2010</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>2009</v>
       </c>
-      <c r="E13" t="b">
+      <c r="E14" t="b">
         <v>0</v>
       </c>
     </row>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakethompson/Documents/GIT/websites/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5A27DD-B4C6-E643-8469-818DEE71AACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F08BAC3-4F48-4146-B3FE-799A3D114AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="26540" windowHeight="17040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
   <si>
     <t>in_resume</t>
   </si>
@@ -200,9 +200,6 @@
     <t>sponsor</t>
   </si>
   <si>
-    <t>Innovations in Science Map, Assessment, and Reporting Technology (I-SMART)</t>
-  </si>
-  <si>
     <t>funding</t>
   </si>
   <si>
@@ -275,16 +272,22 @@
     <t>Honors Thesis: "[Dissociating Cognitive and Affective Empathy in Unipolar Depression](https://doi.org/10.31237/osf.io/m4xjf)"</t>
   </si>
   <si>
-    <t>Pathways for Instructionally Embedded Assessment (PIE)</t>
-  </si>
-  <si>
-    <t>Dynamic Learning Maps (DLM) Alternate Assessment System</t>
-  </si>
-  <si>
     <t>USED, Office of Elementary and Secondary Education, Office of School Support and Accountability</t>
   </si>
   <si>
     <t>Brooke Nash</t>
+  </si>
+  <si>
+    <t>[Dynamic Learning Maps (DLM) Alternate Assessment System](https://dynamiclearningmaps.org/)</t>
+  </si>
+  <si>
+    <t>[Pathways for Instructionally Embedded Assessment (PIE)](https://pie.atlas4learning.org/)</t>
+  </si>
+  <si>
+    <t>[Improving Software and Methods for Estimating and Evaluating Diagnostic Classification Models](https://measr.info)</t>
+  </si>
+  <si>
+    <t>[Innovations in Science Map, Assessment, and Reporting Technology (I-SMART)](https://ismart.works)</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1176,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
@@ -1196,10 +1199,10 @@
         <v>2018</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
@@ -1225,16 +1228,16 @@
         <v>2014</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -1291,7 +1294,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -1299,7 +1302,7 @@
     </row>
     <row r="2" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -1311,19 +1314,19 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1343,7 +1346,7 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1423,7 +1426,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1435,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B7310B-209B-5F48-96E7-648531B2B600}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1469,44 +1472,47 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
         <v>59</v>
-      </c>
-      <c r="H1" t="s">
-        <v>60</v>
       </c>
       <c r="I1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>52</v>
       </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E3">
         <v>2022</v>
@@ -1518,10 +1524,10 @@
         <v>2500000</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -1532,10 +1538,10 @@
         <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
       </c>
       <c r="E4">
         <v>2021</v>
@@ -1558,10 +1564,10 @@
         <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>2016</v>
@@ -1570,7 +1576,7 @@
         <v>2020</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -1584,10 +1590,10 @@
         <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
         <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
       </c>
       <c r="E6">
         <v>2020</v>
@@ -1666,10 +1672,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1680,10 +1686,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>2022</v>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakethompson/Documents/GIT/websites/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F08BAC3-4F48-4146-B3FE-799A3D114AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE9A5C4-7A5B-5144-8F2F-60D2F8F7B9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="26540" windowHeight="17040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="26540" windowHeight="17040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="3" r:id="rId1"/>
@@ -194,9 +194,6 @@
     <t>Principal Investigator</t>
   </si>
   <si>
-    <t>Other Personnel</t>
-  </si>
-  <si>
     <t>sponsor</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
     <t>Work across contract and grant-funded projects to promote learning, evaluate student achievement, and develop tools to improve research practice</t>
   </si>
   <si>
-    <t>AERA Division H Outstanding Publication Winner</t>
-  </si>
-  <si>
     <t>Lead a team of 3–4 reports to execute operational scoring and reporting and for the [Dynamic Learning Maps](https://dynamiclearningmaps.org) Alternate Assessment</t>
   </si>
   <si>
@@ -288,6 +282,12 @@
   </si>
   <si>
     <t>[Innovations in Science Map, Assessment, and Reporting Technology (I-SMART)](https://ismart.works)</t>
+  </si>
+  <si>
+    <t>Other Personnel (Psychometrician)</t>
+  </si>
+  <si>
+    <t>AERA Division H Outstanding Publication Award for Advances in Methodology</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1176,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>2018</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
@@ -1228,16 +1228,16 @@
         <v>2014</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -1294,7 +1294,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="2" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -1314,19 +1314,19 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1346,7 +1346,7 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1426,7 +1426,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1438,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B7310B-209B-5F48-96E7-648531B2B600}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1472,10 +1472,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
         <v>58</v>
-      </c>
-      <c r="H1" t="s">
-        <v>59</v>
       </c>
       <c r="I1" t="s">
         <v>34</v>
@@ -1486,16 +1486,16 @@
         <v>52</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -1506,13 +1506,13 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3">
         <v>2022</v>
@@ -1524,7 +1524,7 @@
         <v>2500000</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -1538,10 +1538,10 @@
         <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>2021</v>
@@ -1561,13 +1561,13 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>2016</v>
@@ -1576,7 +1576,7 @@
         <v>2020</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -1590,10 +1590,10 @@
         <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
         <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
       </c>
       <c r="E6">
         <v>2020</v>
@@ -1629,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F508133-2F1C-F74C-9A6E-5E2385798E5D}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1686,10 +1686,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>2022</v>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakethompson/Documents/GIT/websites/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE9A5C4-7A5B-5144-8F2F-60D2F8F7B9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C47EBA7-1BF2-9D44-800A-FBCEE39FBBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="26540" windowHeight="17040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12380" yWindow="1280" windowWidth="15820" windowHeight="17040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="97">
   <si>
     <t>in_resume</t>
   </si>
@@ -173,9 +173,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>Under Review</t>
-  </si>
-  <si>
     <t>Unfunded</t>
   </si>
   <si>
@@ -288,6 +285,36 @@
   </si>
   <si>
     <t>AERA Division H Outstanding Publication Award for Advances in Methodology</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Advisor</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Advancing Cognitive Diagnostic Computerized Adaptive Testing (CD-CAT) Research</t>
+  </si>
+  <si>
+    <t>Expanding the Functionality and Accessibility of Software for Diagnostic Measurement</t>
+  </si>
+  <si>
+    <t>Pathways for Instructionally Embedded Assessment—Middle School (PIE-MS)</t>
+  </si>
+  <si>
+    <t>Amy K. Clark</t>
+  </si>
+  <si>
+    <t>K-2 Pathways</t>
+  </si>
+  <si>
+    <t>Investigator</t>
+  </si>
+  <si>
+    <t>Co-Investigator</t>
   </si>
 </sst>
 </file>
@@ -295,7 +322,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -780,7 +807,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -840,9 +867,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -880,7 +907,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -986,7 +1013,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1128,7 +1155,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1176,7 +1203,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
@@ -1199,10 +1226,10 @@
         <v>2018</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
@@ -1228,16 +1255,16 @@
         <v>2014</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -1294,7 +1321,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -1302,7 +1329,7 @@
     </row>
     <row r="2" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -1314,19 +1341,19 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1346,7 +1373,7 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1426,7 +1453,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1436,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B7310B-209B-5F48-96E7-648531B2B600}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1448,7 +1475,7 @@
     <col min="2" max="2" width="32.5" customWidth="1"/>
     <col min="3" max="3" width="55.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1457,13 +1484,13 @@
         <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1472,10 +1499,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
         <v>57</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
       </c>
       <c r="I1" t="s">
         <v>34</v>
@@ -1483,19 +1510,19 @@
     </row>
     <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -1506,25 +1533,25 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="F3">
-        <v>2026</v>
+        <v>2020</v>
       </c>
       <c r="G3" s="3">
-        <v>2500000</v>
+        <v>3800000</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -1532,22 +1559,22 @@
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F4">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G4" s="3">
         <v>225000</v>
@@ -1558,25 +1585,25 @@
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="F5">
-        <v>2020</v>
-      </c>
-      <c r="H5" t="s">
-        <v>59</v>
+        <v>2023</v>
+      </c>
+      <c r="G5" s="3">
+        <v>225000</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -1584,40 +1611,159 @@
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E6">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F6">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="G6" s="3">
-        <v>225000</v>
+        <v>2500000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7">
+        <v>2024</v>
+      </c>
+      <c r="F7">
+        <v>2027</v>
+      </c>
+      <c r="G7" s="3">
+        <v>900000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8">
+        <v>2024</v>
+      </c>
+      <c r="F8">
+        <v>2026</v>
+      </c>
+      <c r="G8" s="3">
+        <v>350000</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9">
+        <v>2024</v>
+      </c>
+      <c r="F9">
+        <v>2028</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3400000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10">
+        <v>2024</v>
+      </c>
+      <c r="F10">
+        <v>2028</v>
+      </c>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{342B7362-4A04-B34C-926E-CEFE6FBD38C6}">
           <x14:formula1>
             <xm:f>'data-validation'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A1048576</xm:sqref>
+          <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FFBFF42F-BCE1-0F45-8D4F-B4BB777F0FF4}">
+          <x14:formula1>
+            <xm:f>'data-validation'!$B$2:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1629,7 +1775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F508133-2F1C-F74C-9A6E-5E2385798E5D}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1672,10 +1818,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1686,10 +1832,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -1854,10 +2000,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD05C9C-82A9-8A4E-AE80-D4F49856ECD5}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1865,29 +2011,54 @@
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>50</v>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakethompson/Documents/GIT/websites/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C47EBA7-1BF2-9D44-800A-FBCEE39FBBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E113C0-C7C8-B245-B32B-3B1281190412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="1280" windowWidth="15820" windowHeight="17040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="94">
   <si>
     <t>in_resume</t>
   </si>
@@ -299,22 +299,13 @@
     <t>Advancing Cognitive Diagnostic Computerized Adaptive Testing (CD-CAT) Research</t>
   </si>
   <si>
-    <t>Expanding the Functionality and Accessibility of Software for Diagnostic Measurement</t>
-  </si>
-  <si>
-    <t>Pathways for Instructionally Embedded Assessment—Middle School (PIE-MS)</t>
-  </si>
-  <si>
-    <t>Amy K. Clark</t>
-  </si>
-  <si>
-    <t>K-2 Pathways</t>
-  </si>
-  <si>
     <t>Investigator</t>
   </si>
   <si>
     <t>Co-Investigator</t>
+  </si>
+  <si>
+    <t>[Expanding the Functionality and Accessibility of Software for Diagnostic Measurement](https://measr.info)</t>
   </si>
 </sst>
 </file>
@@ -1463,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B7310B-209B-5F48-96E7-648531B2B600}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1585,7 +1576,7 @@
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -1600,7 +1591,7 @@
         <v>2021</v>
       </c>
       <c r="F5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G5" s="3">
         <v>225000</v>
@@ -1669,13 +1660,13 @@
     </row>
     <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
         <v>61</v>
@@ -1690,62 +1681,7 @@
         <v>350000</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9">
-        <v>2024</v>
-      </c>
-      <c r="F9">
-        <v>2028</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3400000</v>
-      </c>
-      <c r="H9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10">
-        <v>2024</v>
-      </c>
-      <c r="F10">
-        <v>2028</v>
-      </c>
-      <c r="H10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2040,7 +1976,7 @@
         <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2048,7 +1984,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
